--- a/Products.xlsx
+++ b/Products.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655E8ED8-00ED-4E9C-8F7B-8C032563966A}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E37DF5-4E10-43F2-B811-D676CB474DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +26,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Pencils</t>
+  </si>
+  <si>
+    <t>Rulers</t>
+  </si>
+  <si>
+    <t>Markers</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Binders</t>
+  </si>
+  <si>
+    <t>Calculators</t>
+  </si>
+  <si>
+    <t>Composition Books</t>
+  </si>
+  <si>
+    <t>Pencil Sharpeners</t>
+  </si>
+  <si>
+    <t>Erasers</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April </t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,12 +444,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2017</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.99</v>
+      </c>
+      <c r="C2">
+        <v>406</v>
+      </c>
+      <c r="D2">
+        <v>307</v>
+      </c>
+      <c r="E2">
+        <v>397</v>
+      </c>
+      <c r="F2">
+        <v>420</v>
+      </c>
+      <c r="G2">
+        <v>356</v>
+      </c>
+      <c r="H2">
+        <v>298</v>
+      </c>
+      <c r="I2">
+        <v>745</v>
+      </c>
+      <c r="J2">
+        <v>912</v>
+      </c>
+      <c r="K2">
+        <v>623</v>
+      </c>
+      <c r="L2">
+        <v>436</v>
+      </c>
+      <c r="M2">
+        <v>300</v>
+      </c>
+      <c r="N2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.99</v>
+      </c>
+      <c r="C3">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>235</v>
+      </c>
+      <c r="E3">
+        <v>245</v>
+      </c>
+      <c r="F3">
+        <v>217</v>
+      </c>
+      <c r="G3">
+        <v>197</v>
+      </c>
+      <c r="H3">
+        <v>97</v>
+      </c>
+      <c r="I3">
+        <v>412</v>
+      </c>
+      <c r="J3">
+        <v>467</v>
+      </c>
+      <c r="K3">
+        <v>304</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>135</v>
+      </c>
+      <c r="N3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.49</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>45</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Products.xlsx
+++ b/Products.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehorton4346\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E37DF5-4E10-43F2-B811-D676CB474DE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>Paper</t>
   </si>
@@ -98,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,14 +442,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -591,11 +605,38 @@
       <c r="C4">
         <v>30</v>
       </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
       <c r="I4">
         <v>45</v>
       </c>
       <c r="J4">
         <v>60</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -605,6 +646,42 @@
       <c r="B5">
         <v>3.99</v>
       </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+      <c r="D5">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>237</v>
+      </c>
+      <c r="F5">
+        <v>235</v>
+      </c>
+      <c r="G5">
+        <v>273</v>
+      </c>
+      <c r="H5">
+        <v>312</v>
+      </c>
+      <c r="I5">
+        <v>379</v>
+      </c>
+      <c r="J5">
+        <v>401</v>
+      </c>
+      <c r="K5">
+        <v>368</v>
+      </c>
+      <c r="L5">
+        <v>260</v>
+      </c>
+      <c r="M5">
+        <v>254</v>
+      </c>
+      <c r="N5">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -613,6 +690,42 @@
       <c r="B6">
         <v>3.29</v>
       </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>102</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>123</v>
+      </c>
+      <c r="J6">
+        <v>140</v>
+      </c>
+      <c r="K6">
+        <v>179</v>
+      </c>
+      <c r="L6">
+        <v>175</v>
+      </c>
+      <c r="M6">
+        <v>164</v>
+      </c>
+      <c r="N6">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -621,6 +734,42 @@
       <c r="B7">
         <v>2.89</v>
       </c>
+      <c r="C7">
+        <v>455</v>
+      </c>
+      <c r="D7">
+        <v>462</v>
+      </c>
+      <c r="E7">
+        <v>475</v>
+      </c>
+      <c r="F7">
+        <v>474</v>
+      </c>
+      <c r="G7">
+        <v>453</v>
+      </c>
+      <c r="H7">
+        <v>468</v>
+      </c>
+      <c r="I7">
+        <v>592</v>
+      </c>
+      <c r="J7">
+        <v>655</v>
+      </c>
+      <c r="K7">
+        <v>557</v>
+      </c>
+      <c r="L7">
+        <v>534</v>
+      </c>
+      <c r="M7">
+        <v>521</v>
+      </c>
+      <c r="N7">
+        <v>478</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -629,6 +778,42 @@
       <c r="B8">
         <v>12.99</v>
       </c>
+      <c r="C8">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>213</v>
+      </c>
+      <c r="E8">
+        <v>211</v>
+      </c>
+      <c r="F8">
+        <v>185</v>
+      </c>
+      <c r="G8">
+        <v>176</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8">
+        <v>284</v>
+      </c>
+      <c r="J8">
+        <v>315</v>
+      </c>
+      <c r="K8">
+        <v>304</v>
+      </c>
+      <c r="L8">
+        <v>288</v>
+      </c>
+      <c r="M8">
+        <v>274</v>
+      </c>
+      <c r="N8">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -637,6 +822,42 @@
       <c r="B9">
         <v>2.99</v>
       </c>
+      <c r="C9">
+        <v>634</v>
+      </c>
+      <c r="D9">
+        <v>521</v>
+      </c>
+      <c r="E9">
+        <v>503</v>
+      </c>
+      <c r="F9">
+        <v>456</v>
+      </c>
+      <c r="G9">
+        <v>443</v>
+      </c>
+      <c r="H9">
+        <v>402</v>
+      </c>
+      <c r="I9">
+        <v>544</v>
+      </c>
+      <c r="J9">
+        <v>639</v>
+      </c>
+      <c r="K9">
+        <v>612</v>
+      </c>
+      <c r="L9">
+        <v>578</v>
+      </c>
+      <c r="M9">
+        <v>552</v>
+      </c>
+      <c r="N9">
+        <v>512</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -645,6 +866,42 @@
       <c r="B10">
         <v>0.49</v>
       </c>
+      <c r="C10">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>123</v>
+      </c>
+      <c r="E10">
+        <v>134</v>
+      </c>
+      <c r="F10">
+        <v>112</v>
+      </c>
+      <c r="G10">
+        <v>114</v>
+      </c>
+      <c r="H10">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <v>256</v>
+      </c>
+      <c r="J10">
+        <v>267</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>241</v>
+      </c>
+      <c r="M10">
+        <v>204</v>
+      </c>
+      <c r="N10">
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -653,10 +910,643 @@
       <c r="B11">
         <v>1.49</v>
       </c>
+      <c r="C11">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>119</v>
+      </c>
+      <c r="F11">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>97</v>
+      </c>
+      <c r="H11">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>133</v>
+      </c>
+      <c r="J11">
+        <v>195</v>
+      </c>
+      <c r="K11">
+        <v>167</v>
+      </c>
+      <c r="L11">
+        <v>156</v>
+      </c>
+      <c r="M11">
+        <v>154</v>
+      </c>
+      <c r="N11">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C14">
+        <v>402</v>
+      </c>
+      <c r="D14">
+        <v>302</v>
+      </c>
+      <c r="E14">
+        <v>396</v>
+      </c>
+      <c r="F14">
+        <v>414</v>
+      </c>
+      <c r="G14">
+        <v>347</v>
+      </c>
+      <c r="H14">
+        <v>295</v>
+      </c>
+      <c r="I14">
+        <v>741</v>
+      </c>
+      <c r="J14">
+        <v>906</v>
+      </c>
+      <c r="K14">
+        <v>615</v>
+      </c>
+      <c r="L14">
+        <v>421</v>
+      </c>
+      <c r="M14">
+        <v>291</v>
+      </c>
+      <c r="N14">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3.89</v>
+      </c>
+      <c r="C15">
+        <v>239</v>
+      </c>
+      <c r="D15">
+        <v>241</v>
+      </c>
+      <c r="E15">
+        <v>253</v>
+      </c>
+      <c r="F15">
+        <v>229</v>
+      </c>
+      <c r="G15">
+        <v>208</v>
+      </c>
+      <c r="H15">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <v>423</v>
+      </c>
+      <c r="J15">
+        <v>481</v>
+      </c>
+      <c r="K15">
+        <v>325</v>
+      </c>
+      <c r="L15">
+        <v>219</v>
+      </c>
+      <c r="M15">
+        <v>151</v>
+      </c>
+      <c r="N15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0.69</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>38</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3.79</v>
+      </c>
+      <c r="C17">
+        <v>245</v>
+      </c>
+      <c r="D17">
+        <v>235</v>
+      </c>
+      <c r="E17">
+        <v>241</v>
+      </c>
+      <c r="F17">
+        <v>244</v>
+      </c>
+      <c r="G17">
+        <v>283</v>
+      </c>
+      <c r="H17">
+        <v>316</v>
+      </c>
+      <c r="I17">
+        <v>403</v>
+      </c>
+      <c r="J17">
+        <v>417</v>
+      </c>
+      <c r="K17">
+        <v>385</v>
+      </c>
+      <c r="L17">
+        <v>272</v>
+      </c>
+      <c r="M17">
+        <v>265</v>
+      </c>
+      <c r="N17">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3.39</v>
+      </c>
+      <c r="C18">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <v>83</v>
+      </c>
+      <c r="H18">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>115</v>
+      </c>
+      <c r="J18">
+        <v>134</v>
+      </c>
+      <c r="K18">
+        <v>155</v>
+      </c>
+      <c r="L18">
+        <v>153</v>
+      </c>
+      <c r="M18">
+        <v>139</v>
+      </c>
+      <c r="N18">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3.29</v>
+      </c>
+      <c r="C19">
+        <v>441</v>
+      </c>
+      <c r="D19">
+        <v>453</v>
+      </c>
+      <c r="E19">
+        <v>465</v>
+      </c>
+      <c r="F19">
+        <v>453</v>
+      </c>
+      <c r="G19">
+        <v>439</v>
+      </c>
+      <c r="H19">
+        <v>445</v>
+      </c>
+      <c r="I19">
+        <v>567</v>
+      </c>
+      <c r="J19">
+        <v>634</v>
+      </c>
+      <c r="K19">
+        <v>541</v>
+      </c>
+      <c r="L19">
+        <v>507</v>
+      </c>
+      <c r="M19">
+        <v>502</v>
+      </c>
+      <c r="N19">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>13.69</v>
+      </c>
+      <c r="C20">
+        <v>225</v>
+      </c>
+      <c r="D20">
+        <v>176</v>
+      </c>
+      <c r="E20">
+        <v>172</v>
+      </c>
+      <c r="F20">
+        <v>164</v>
+      </c>
+      <c r="G20">
+        <v>158</v>
+      </c>
+      <c r="H20">
+        <v>151</v>
+      </c>
+      <c r="I20">
+        <v>278</v>
+      </c>
+      <c r="J20">
+        <v>299</v>
+      </c>
+      <c r="K20">
+        <v>276</v>
+      </c>
+      <c r="L20">
+        <v>265</v>
+      </c>
+      <c r="M20">
+        <v>247</v>
+      </c>
+      <c r="N20">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>3.19</v>
+      </c>
+      <c r="C21">
+        <v>605</v>
+      </c>
+      <c r="D21">
+        <v>512</v>
+      </c>
+      <c r="E21">
+        <v>504</v>
+      </c>
+      <c r="F21">
+        <v>451</v>
+      </c>
+      <c r="G21">
+        <v>432</v>
+      </c>
+      <c r="H21">
+        <v>379</v>
+      </c>
+      <c r="I21">
+        <v>521</v>
+      </c>
+      <c r="J21">
+        <v>610</v>
+      </c>
+      <c r="K21">
+        <v>610</v>
+      </c>
+      <c r="L21">
+        <v>566</v>
+      </c>
+      <c r="M21">
+        <v>538</v>
+      </c>
+      <c r="N21">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0.69</v>
+      </c>
+      <c r="C22">
+        <v>143</v>
+      </c>
+      <c r="D22">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>123</v>
+      </c>
+      <c r="F22">
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>102</v>
+      </c>
+      <c r="H22">
+        <v>93</v>
+      </c>
+      <c r="I22">
+        <v>233</v>
+      </c>
+      <c r="J22">
+        <v>248</v>
+      </c>
+      <c r="K22">
+        <v>240</v>
+      </c>
+      <c r="L22">
+        <v>225</v>
+      </c>
+      <c r="M22">
+        <v>187</v>
+      </c>
+      <c r="N22">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1.29</v>
+      </c>
+      <c r="C23">
+        <v>145</v>
+      </c>
+      <c r="D23">
+        <v>136</v>
+      </c>
+      <c r="E23">
+        <v>124</v>
+      </c>
+      <c r="F23">
+        <v>113</v>
+      </c>
+      <c r="G23">
+        <v>126</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23">
+        <v>155</v>
+      </c>
+      <c r="J23">
+        <v>208</v>
+      </c>
+      <c r="K23">
+        <v>178</v>
+      </c>
+      <c r="L23">
+        <v>162</v>
+      </c>
+      <c r="M23">
+        <v>167</v>
+      </c>
+      <c r="N23">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehorton4346\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\PycharmProjects\productmanager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4AB03-5B9F-41DA-B2B1-6CAABC72A40B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Paper</t>
   </si>
@@ -92,12 +86,15 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +467,9 @@
       <c r="A1">
         <v>2017</v>
       </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
@@ -951,6 +951,9 @@
       <c r="A13">
         <v>2018</v>
       </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -1431,6 +1434,9 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>

--- a/Products.xlsx
+++ b/Products.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\PycharmProjects\productmanager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rcschools-my.sharepoint.com/personal/ehorton4346_student_rcschools_net/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4AB03-5B9F-41DA-B2B1-6CAABC72A40B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +452,7 @@
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
@@ -465,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -949,7 +948,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1433,7 +1432,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1482,6 +1481,42 @@
       <c r="B26">
         <v>1.29</v>
       </c>
+      <c r="C26">
+        <v>356</v>
+      </c>
+      <c r="D26">
+        <v>279</v>
+      </c>
+      <c r="E26">
+        <v>312</v>
+      </c>
+      <c r="F26">
+        <v>334</v>
+      </c>
+      <c r="G26">
+        <v>255</v>
+      </c>
+      <c r="H26">
+        <v>249</v>
+      </c>
+      <c r="I26">
+        <v>687</v>
+      </c>
+      <c r="J26">
+        <v>855</v>
+      </c>
+      <c r="K26">
+        <v>573</v>
+      </c>
+      <c r="L26">
+        <v>381</v>
+      </c>
+      <c r="M26">
+        <v>215</v>
+      </c>
+      <c r="N26">
+        <v>300</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1490,6 +1525,42 @@
       <c r="B27">
         <v>3.79</v>
       </c>
+      <c r="C27">
+        <v>277</v>
+      </c>
+      <c r="D27">
+        <v>285</v>
+      </c>
+      <c r="E27">
+        <v>302</v>
+      </c>
+      <c r="F27">
+        <v>286</v>
+      </c>
+      <c r="G27">
+        <v>263</v>
+      </c>
+      <c r="H27">
+        <v>182</v>
+      </c>
+      <c r="I27">
+        <v>505</v>
+      </c>
+      <c r="J27">
+        <v>532</v>
+      </c>
+      <c r="K27">
+        <v>465</v>
+      </c>
+      <c r="L27">
+        <v>392</v>
+      </c>
+      <c r="M27">
+        <v>297</v>
+      </c>
+      <c r="N27">
+        <v>288</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1498,6 +1569,42 @@
       <c r="B28">
         <v>0.59</v>
       </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>42</v>
+      </c>
+      <c r="J28">
+        <v>55</v>
+      </c>
+      <c r="K28">
+        <v>49</v>
+      </c>
+      <c r="L28">
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <v>37</v>
+      </c>
+      <c r="N28">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1506,6 +1613,42 @@
       <c r="B29">
         <v>3.69</v>
       </c>
+      <c r="C29">
+        <v>240</v>
+      </c>
+      <c r="D29">
+        <v>228</v>
+      </c>
+      <c r="E29">
+        <v>253</v>
+      </c>
+      <c r="F29">
+        <v>242</v>
+      </c>
+      <c r="G29">
+        <v>284</v>
+      </c>
+      <c r="H29">
+        <v>334</v>
+      </c>
+      <c r="I29">
+        <v>412</v>
+      </c>
+      <c r="J29">
+        <v>435</v>
+      </c>
+      <c r="K29">
+        <v>402</v>
+      </c>
+      <c r="L29">
+        <v>316</v>
+      </c>
+      <c r="M29">
+        <v>267</v>
+      </c>
+      <c r="N29">
+        <v>256</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1514,6 +1657,42 @@
       <c r="B30">
         <v>3.59</v>
       </c>
+      <c r="C30">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <v>82</v>
+      </c>
+      <c r="E30">
+        <v>75</v>
+      </c>
+      <c r="F30">
+        <v>79</v>
+      </c>
+      <c r="G30">
+        <v>71</v>
+      </c>
+      <c r="H30">
+        <v>77</v>
+      </c>
+      <c r="I30">
+        <v>91</v>
+      </c>
+      <c r="J30">
+        <v>106</v>
+      </c>
+      <c r="K30">
+        <v>124</v>
+      </c>
+      <c r="L30">
+        <v>121</v>
+      </c>
+      <c r="M30">
+        <v>116</v>
+      </c>
+      <c r="N30">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1522,6 +1701,42 @@
       <c r="B31">
         <v>3.09</v>
       </c>
+      <c r="C31">
+        <v>478</v>
+      </c>
+      <c r="D31">
+        <v>483</v>
+      </c>
+      <c r="E31">
+        <v>490</v>
+      </c>
+      <c r="F31">
+        <v>485</v>
+      </c>
+      <c r="G31">
+        <v>476</v>
+      </c>
+      <c r="H31">
+        <v>481</v>
+      </c>
+      <c r="I31">
+        <v>592</v>
+      </c>
+      <c r="J31">
+        <v>660</v>
+      </c>
+      <c r="K31">
+        <v>591</v>
+      </c>
+      <c r="L31">
+        <v>545</v>
+      </c>
+      <c r="M31">
+        <v>541</v>
+      </c>
+      <c r="N31">
+        <v>525</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1530,29 +1745,173 @@
       <c r="B32">
         <v>13.99</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>206</v>
+      </c>
+      <c r="D32">
+        <v>161</v>
+      </c>
+      <c r="E32">
+        <v>157</v>
+      </c>
+      <c r="F32">
+        <v>143</v>
+      </c>
+      <c r="G32">
+        <v>132</v>
+      </c>
+      <c r="H32">
+        <v>126</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>276</v>
+      </c>
+      <c r="K32">
+        <v>259</v>
+      </c>
+      <c r="L32">
+        <v>243</v>
+      </c>
+      <c r="M32">
+        <v>212</v>
+      </c>
+      <c r="N32">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>645</v>
+      </c>
+      <c r="D33">
+        <v>567</v>
+      </c>
+      <c r="E33">
+        <v>560</v>
+      </c>
+      <c r="F33">
+        <v>489</v>
+      </c>
+      <c r="G33">
+        <v>461</v>
+      </c>
+      <c r="H33">
+        <v>427</v>
+      </c>
+      <c r="I33">
+        <v>561</v>
+      </c>
+      <c r="J33">
+        <v>645</v>
+      </c>
+      <c r="K33">
+        <v>651</v>
+      </c>
+      <c r="L33">
+        <v>612</v>
+      </c>
+      <c r="M33">
+        <v>586</v>
+      </c>
+      <c r="N33">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>131</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>104</v>
+      </c>
+      <c r="F34">
+        <v>81</v>
+      </c>
+      <c r="G34">
+        <v>92</v>
+      </c>
+      <c r="H34">
+        <v>76</v>
+      </c>
+      <c r="I34">
+        <v>197</v>
+      </c>
+      <c r="J34">
+        <v>206</v>
+      </c>
+      <c r="K34">
+        <v>195</v>
+      </c>
+      <c r="L34">
+        <v>188</v>
+      </c>
+      <c r="M34">
+        <v>172</v>
+      </c>
+      <c r="N34">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35">
         <v>1.59</v>
+      </c>
+      <c r="C35">
+        <v>102</v>
+      </c>
+      <c r="D35">
+        <v>93</v>
+      </c>
+      <c r="E35">
+        <v>88</v>
+      </c>
+      <c r="F35">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>82</v>
+      </c>
+      <c r="H35">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>106</v>
+      </c>
+      <c r="J35">
+        <v>169</v>
+      </c>
+      <c r="K35">
+        <v>139</v>
+      </c>
+      <c r="L35">
+        <v>121</v>
+      </c>
+      <c r="M35">
+        <v>127</v>
+      </c>
+      <c r="N35">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
